--- a/AGU presentation/p_values_at_locations.xlsx
+++ b/AGU presentation/p_values_at_locations.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svillamaringomez\Documents\GitHub\water_levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paquito\Desktop\Github\water_levels\AGU presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB3155B-F5FB-42C2-98E4-61E60C0389DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9FA9A8-D659-4996-B1FB-72E06CA37C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15456" yWindow="840" windowWidth="7500" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p_values_at_locations" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -49,15 +50,9 @@
     <t>CamancheIA</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>DubuqueIA</t>
   </si>
   <si>
-    <t>ct</t>
-  </si>
-  <si>
     <t>FairportIA</t>
   </si>
   <si>
@@ -94,16 +89,61 @@
     <t>VicksburgMI</t>
   </si>
   <si>
-    <t>stationarity acording to type</t>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>Camanche</t>
+  </si>
+  <si>
+    <t>Dubuque</t>
+  </si>
+  <si>
+    <t>Fairport</t>
+  </si>
+  <si>
+    <t>FortMadison</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>Hannibal</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Kiethsburg</t>
+  </si>
+  <si>
+    <t>Lock11Dubuque</t>
+  </si>
+  <si>
+    <t>Lock15RockIsland</t>
+  </si>
+  <si>
+    <t>Lock21Quicy</t>
+  </si>
+  <si>
+    <t>Muscatine</t>
+  </si>
+  <si>
+    <t>NewMadrid</t>
+  </si>
+  <si>
+    <t>Vicksburg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -536,6 +576,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -581,21 +658,34 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -641,7 +731,51 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -653,6 +787,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -673,13 +814,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -710,6 +844,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -730,12 +878,79 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,76 +1266,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
+      <c r="I1" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>43</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="11">
         <v>8.8033488876707297E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="12">
         <v>5.8874169801764796E-4</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="13">
         <v>1.1567786584960201E-3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="11">
         <v>5.68521963377134E-2</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
+      <c r="H2" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -1128,28 +1343,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>58</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>4.9363347980036998E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1.0761857723650799E-4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>8.0139587078173105E-2</v>
       </c>
       <c r="F3" s="4">
         <v>2.8183141957359198E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>0.1</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -1157,28 +1372,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3.9849154800873903E-14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>0.930257279233483</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>0.01</v>
       </c>
       <c r="F4" s="4">
         <v>3.94007139119326E-9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0.1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -1186,28 +1401,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>48</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>6.4250174405904405E-4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>7.5596337822192796E-4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1.0076871874822599E-2</v>
       </c>
       <c r="F5" s="4">
         <v>4.5204254526785798E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -1215,28 +1430,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>76</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2.86250366031774E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>6.1682570966040496E-7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>0.1</v>
       </c>
       <c r="F6" s="4">
         <v>2.3922472689797398E-6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -1244,57 +1459,57 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>80</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1.2703555578771299E-6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>2.4245790516532102E-7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0.01</v>
       </c>
       <c r="F7" s="4">
         <v>1.57556726810732E-9</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
         <v>78</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="11">
         <v>0.83930575368498594</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="12">
         <v>9.4667783628760502E-8</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="13">
         <v>1.3127725893093899E-6</v>
       </c>
-      <c r="G8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
+      <c r="G8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1302,28 +1517,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>43</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1.5627012792364201E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1.2360349745092799E-3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1.8095297344406701E-2</v>
       </c>
       <c r="F9" s="4">
         <v>4.0198125007306402E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>0.1</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -1331,28 +1546,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>1.02410749696828E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>4.30915709615259E-6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>4.5422647245031797E-2</v>
       </c>
       <c r="F10" s="4">
         <v>3.6453815032416199E-3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>0.1</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1360,28 +1575,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>80</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>3.4022048662528701E-6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>1.5629222981680099E-4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>0.01</v>
       </c>
       <c r="F11" s="4">
         <v>3.4185489590427199E-4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>0.1</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
@@ -1389,28 +1604,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>80</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>3.20750479947979E-4</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>2.3639381323361799E-6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>1.0062392338782001E-2</v>
       </c>
       <c r="F12" s="4">
         <v>7.8161740264757901E-7</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>0.1</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -1418,57 +1633,57 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>74</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>6.9875656133845499E-6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>5.2423288335018299E-5</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>0.01</v>
       </c>
       <c r="F13" s="4">
         <v>9.7141048381074197E-7</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>0.1</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10">
+        <v>80</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.464644428459145</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5.4772283903487702E-7</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>7.8500397030101E-6</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14">
-        <v>80</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.464644428459145</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5.4772283903487702E-7</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>7.8500397030101E-6</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -1476,28 +1691,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>80</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>1.2182521877097699E-6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>1.04161404077511E-4</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>0.01</v>
       </c>
       <c r="F15" s="4">
         <v>1.27599873153417E-5</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>0.1</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -1505,42 +1720,556 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D15">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H15">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="linear">
+      <formula>NOT(ISERROR(SEARCH("linear",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="constant">
+      <formula>NOT(ISERROR(SEARCH("constant",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012015F-5240-468C-976D-FC185B616CFE}">
+  <dimension ref="G10:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10">
+        <v>43</v>
+      </c>
+      <c r="I11" s="11">
+        <v>8.8033488876707297E-2</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="12">
+        <v>5.8874169801764796E-4</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1.1567786584960201E-3</v>
+      </c>
+      <c r="N11" s="11">
+        <v>5.68521963377134E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>58</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4.9363347980036998E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.0761857723650799E-4</v>
+      </c>
+      <c r="L12" s="5">
+        <v>8.0139587078173105E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2.8183141957359198E-4</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>80</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.9849154800873903E-14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.930257279233483</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3.94007139119326E-9</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6.4250174405904405E-4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7.5596337822192796E-4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.0076871874822599E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4.5204254526785798E-4</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>76</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2.86250366031774E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3">
+        <v>6.1682570966040496E-7</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2.3922472689797398E-6</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>80</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.2703555578771299E-6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2.4245790516532102E-7</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1.57556726810732E-9</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="10">
+        <v>78</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.83930575368498594</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="12">
+        <v>9.4667783628760502E-8</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1.3127725893093899E-6</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.5627012792364201E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.2360349745092799E-3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.8095297344406701E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4.0198125007306402E-4</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.02410749696828E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4.30915709615259E-6</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4.5422647245031797E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3.6453815032416199E-3</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>80</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.4022048662528701E-6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.5629222981680099E-4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3.4185489590427199E-4</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21">
+        <v>80</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.20750479947979E-4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2.3639381323361799E-6</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.0062392338782001E-2</v>
+      </c>
+      <c r="M21" s="4">
+        <v>7.8161740264757901E-7</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>74</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6.9875656133845499E-6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5.2423288335018299E-5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M22" s="4">
+        <v>9.7141048381074197E-7</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="10">
+        <v>80</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.464644428459145</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="12">
+        <v>5.4772283903487702E-7</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="13">
+        <v>7.8500397030101E-6</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>80</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.2182521877097699E-6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.04161404077511E-4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1.27599873153417E-5</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K11:K24">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L24">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M24">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N24">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J24">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="linear">
+      <formula>NOT(ISERROR(SEARCH("linear",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="constant">
+      <formula>NOT(ISERROR(SEARCH("constant",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I24">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
